--- a/stats.xlsx
+++ b/stats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>accuracy(%)</t>
   </si>
@@ -35,19 +35,34 @@
     <t>k</t>
   </si>
   <si>
-    <t>50/50</t>
+    <t>accuracy</t>
   </si>
   <si>
-    <t>90/10 (1.4.3)</t>
+    <t>time</t>
   </si>
   <si>
-    <t>90/10 (1.4.4)</t>
+    <t>mean</t>
   </si>
   <si>
-    <t>sig=0.55</t>
+    <t>SD</t>
   </si>
   <si>
-    <t>sig=0.75</t>
+    <t>(1.4.3) 90/10 split, 10 runs</t>
+  </si>
+  <si>
+    <t>(1.4.4)90/10, gaussian sig=0.55</t>
+  </si>
+  <si>
+    <t>(1.4.4)90/10, gaussian sig=0.75</t>
+  </si>
+  <si>
+    <t>many persons, 90/10 split</t>
+  </si>
+  <si>
+    <t>50/50 split</t>
+  </si>
+  <si>
+    <t>k testing</t>
   </si>
 </sst>
 </file>
@@ -125,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -135,6 +150,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,13 +476,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.44140625" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
@@ -475,23 +500,23 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="O1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
@@ -503,6 +528,9 @@
       <c r="C2" s="1">
         <v>94.95</v>
       </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
@@ -883,6 +911,9 @@
       <c r="C12" s="1">
         <v>91.5</v>
       </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
       <c r="H12">
         <f>AVERAGE(H2:H11)</f>
         <v>59.580999999999996</v>
@@ -891,6 +922,9 @@
         <f>AVERAGE(I2:I11)</f>
         <v>91.2</v>
       </c>
+      <c r="K12" t="s">
+        <v>5</v>
+      </c>
       <c r="L12">
         <f>AVERAGE(L2:L11)</f>
         <v>61.185000000000002</v>
@@ -899,8 +933,22 @@
         <f>AVERAGE(M2:M11)</f>
         <v>95.9</v>
       </c>
+      <c r="O12" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <f>AVERAGE(P2:P11)</f>
+        <v>58.864999999999995</v>
+      </c>
+      <c r="Q12">
+        <f>AVERAGE(Q2:Q11)</f>
+        <v>95.9</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
       <c r="H13">
         <f>STDEV(H2:H12)</f>
         <v>0.52605037781566089</v>
@@ -909,6 +957,9 @@
         <f>STDEV(I2:I12)</f>
         <v>0.94074438611133893</v>
       </c>
+      <c r="K13" t="s">
+        <v>6</v>
+      </c>
       <c r="L13">
         <f>STDEV(L2:L12)</f>
         <v>4.9271294888606283</v>
@@ -917,6 +968,17 @@
         <f>STDEV(M2:M12)</f>
         <v>0.62449979983983983</v>
       </c>
+      <c r="O13" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <f>STDEV(P2:P12)</f>
+        <v>1.0949543369474366</v>
+      </c>
+      <c r="Q13">
+        <f>STDEV(Q2:Q12)</f>
+        <v>0.62449979983983983</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
@@ -948,6 +1010,11 @@
       <c r="I15" s="1">
         <v>90.25</v>
       </c>
+      <c r="K15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
@@ -968,8 +1035,14 @@
       <c r="I16" s="3">
         <v>91.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -988,8 +1061,17 @@
       <c r="I17" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1">
+        <v>93.15</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.72140000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1008,8 +1090,17 @@
       <c r="I18" s="3">
         <v>90.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
+        <v>8563.25</v>
+      </c>
+      <c r="M18" s="5">
+        <v>42.113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1029,7 +1120,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1049,7 +1140,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1069,7 +1160,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1089,7 +1180,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1109,7 +1200,7 @@
         <v>92.75</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1128,7 +1219,7 @@
         <v>91.194444444444443</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1147,7 +1238,7 @@
         <v>0.9914760165319304</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1158,7 +1249,7 @@
         <v>91.45</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1169,7 +1260,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1180,7 +1271,7 @@
         <v>90.8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -1191,7 +1282,7 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -1202,7 +1293,7 @@
         <v>90.65</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -1213,7 +1304,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -1809,6 +1900,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="K15:M15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>accuracy(%)</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>k testing</t>
+  </si>
+  <si>
+    <t>k-9</t>
+  </si>
+  <si>
+    <t>k=10</t>
+  </si>
+  <si>
+    <t>k=11</t>
+  </si>
+  <si>
+    <t>k=12</t>
+  </si>
+  <si>
+    <t>k=69</t>
+  </si>
+  <si>
+    <t>k=68</t>
   </si>
 </sst>
 </file>
@@ -474,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:U150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,7 +507,7 @@
     <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -517,8 +535,13 @@
       </c>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>5</v>
       </c>
@@ -558,8 +581,14 @@
       <c r="Q2" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -596,8 +625,17 @@
       <c r="Q3" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1">
+        <v>93.15</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0.72140000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>7</v>
       </c>
@@ -634,8 +672,17 @@
       <c r="Q4" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="3">
+        <v>8563.25</v>
+      </c>
+      <c r="U4" s="5">
+        <v>42.113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>8</v>
       </c>
@@ -673,7 +720,7 @@
         <v>94.75</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>9</v>
       </c>
@@ -711,7 +758,7 @@
         <v>95.25</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>10</v>
       </c>
@@ -749,7 +796,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>11</v>
       </c>
@@ -787,7 +834,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -825,7 +872,7 @@
         <v>96.25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>13</v>
       </c>
@@ -863,7 +910,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>14</v>
       </c>
@@ -901,7 +948,7 @@
         <v>95.25</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>15</v>
       </c>
@@ -945,7 +992,7 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>6</v>
       </c>
@@ -980,7 +1027,7 @@
         <v>0.62449979983983983</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -991,7 +1038,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1010,13 +1057,8 @@
       <c r="I15" s="1">
         <v>90.25</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1035,14 +1077,8 @@
       <c r="I16" s="3">
         <v>91.75</v>
       </c>
-      <c r="L16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1061,17 +1097,8 @@
       <c r="I17" s="1">
         <v>90</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="1">
-        <v>93.15</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0.72140000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1090,17 +1117,8 @@
       <c r="I18" s="3">
         <v>90.5</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
-        <v>8563.25</v>
-      </c>
-      <c r="M18" s="5">
-        <v>42.113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1120,7 +1138,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1140,7 +1158,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1160,7 +1178,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1180,7 +1198,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1200,7 +1218,7 @@
         <v>92.75</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1219,7 +1237,7 @@
         <v>91.194444444444443</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1238,7 +1256,7 @@
         <v>0.9914760165319304</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1249,7 +1267,7 @@
         <v>91.45</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1260,7 +1278,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1271,7 +1289,7 @@
         <v>90.8</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -1282,7 +1300,7 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -1293,7 +1311,7 @@
         <v>90.65</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -1304,7 +1322,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -1855,7 +1873,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>77</v>
       </c>
@@ -1866,7 +1884,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>78</v>
       </c>
@@ -1877,7 +1895,7 @@
         <v>83.85</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>79</v>
       </c>
@@ -1888,7 +1906,7 @@
         <v>83.75</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>80</v>
       </c>
@@ -1897,6 +1915,718 @@
       </c>
       <c r="C84" s="3">
         <v>83.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>1</v>
+      </c>
+      <c r="B89" s="1">
+        <v>92.5</v>
+      </c>
+      <c r="C89" s="1">
+        <v>171.33</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>2</v>
+      </c>
+      <c r="B90" s="3">
+        <v>92.55</v>
+      </c>
+      <c r="C90" s="3">
+        <v>177.56</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>3</v>
+      </c>
+      <c r="B91" s="1">
+        <v>91.65</v>
+      </c>
+      <c r="C91" s="1">
+        <v>179.49</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>4</v>
+      </c>
+      <c r="B92" s="3">
+        <v>91.65</v>
+      </c>
+      <c r="C92" s="3">
+        <v>178.28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>91.65</v>
+      </c>
+      <c r="C93" s="1">
+        <v>179.41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>6</v>
+      </c>
+      <c r="B94" s="3">
+        <v>91.25</v>
+      </c>
+      <c r="C94" s="3">
+        <v>176.26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>7</v>
+      </c>
+      <c r="B95" s="1">
+        <v>91.2</v>
+      </c>
+      <c r="C95" s="1">
+        <v>178.22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="2">
+        <v>8</v>
+      </c>
+      <c r="B96" s="3">
+        <v>91.25</v>
+      </c>
+      <c r="C96" s="3">
+        <v>178.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>9</v>
+      </c>
+      <c r="B97" s="1">
+        <v>91.2</v>
+      </c>
+      <c r="C97" s="1">
+        <v>173.72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>10</v>
+      </c>
+      <c r="B98" s="3">
+        <v>90.85</v>
+      </c>
+      <c r="C98" s="3">
+        <v>173.32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
+        <v>11</v>
+      </c>
+      <c r="B99" s="1">
+        <v>90.7</v>
+      </c>
+      <c r="C99" s="1">
+        <v>172.61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>12</v>
+      </c>
+      <c r="B100" s="3">
+        <v>90.45</v>
+      </c>
+      <c r="C100" s="3">
+        <v>176.05</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>13</v>
+      </c>
+      <c r="B101" s="1">
+        <v>90.25</v>
+      </c>
+      <c r="C101" s="1">
+        <v>178.38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
+        <v>14</v>
+      </c>
+      <c r="B102" s="3">
+        <v>90.2</v>
+      </c>
+      <c r="C102" s="3">
+        <v>177.95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>15</v>
+      </c>
+      <c r="B103" s="1">
+        <v>90.05</v>
+      </c>
+      <c r="C103" s="1">
+        <v>177.22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
+        <v>16</v>
+      </c>
+      <c r="B104" s="3">
+        <v>89.65</v>
+      </c>
+      <c r="C104" s="3">
+        <v>178.95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="2">
+        <v>17</v>
+      </c>
+      <c r="B105" s="1">
+        <v>89.55</v>
+      </c>
+      <c r="C105" s="1">
+        <v>176.92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="2">
+        <v>18</v>
+      </c>
+      <c r="B106" s="3">
+        <v>89.15</v>
+      </c>
+      <c r="C106" s="3">
+        <v>179.08</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="2">
+        <v>19</v>
+      </c>
+      <c r="B107" s="1">
+        <v>88.9</v>
+      </c>
+      <c r="C107" s="1">
+        <v>179.58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="2">
+        <v>20</v>
+      </c>
+      <c r="B108" s="3">
+        <v>88.9</v>
+      </c>
+      <c r="C108" s="3">
+        <v>172.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="2">
+        <v>21</v>
+      </c>
+      <c r="B109" s="1">
+        <v>88.85</v>
+      </c>
+      <c r="C109" s="1">
+        <v>180.75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="2">
+        <v>22</v>
+      </c>
+      <c r="B110" s="3">
+        <v>88.55</v>
+      </c>
+      <c r="C110" s="3">
+        <v>173.57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="2">
+        <v>23</v>
+      </c>
+      <c r="B111" s="1">
+        <v>88.45</v>
+      </c>
+      <c r="C111" s="1">
+        <v>172.96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="2">
+        <v>24</v>
+      </c>
+      <c r="B112" s="3">
+        <v>88.3</v>
+      </c>
+      <c r="C112" s="3">
+        <v>172.9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="2">
+        <v>25</v>
+      </c>
+      <c r="B113" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="C113" s="1">
+        <v>172.97</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="2">
+        <v>26</v>
+      </c>
+      <c r="B114" s="3">
+        <v>88.15</v>
+      </c>
+      <c r="C114" s="3">
+        <v>172.97</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="2">
+        <v>27</v>
+      </c>
+      <c r="B115" s="1">
+        <v>87.9</v>
+      </c>
+      <c r="C115" s="1">
+        <v>173.16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="2">
+        <v>28</v>
+      </c>
+      <c r="B116" s="3">
+        <v>87.45</v>
+      </c>
+      <c r="C116" s="3">
+        <v>174.89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="2">
+        <v>29</v>
+      </c>
+      <c r="B117" s="1">
+        <v>87.3</v>
+      </c>
+      <c r="C117" s="1">
+        <v>181.86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="2">
+        <v>30</v>
+      </c>
+      <c r="B118" s="3">
+        <v>87.05</v>
+      </c>
+      <c r="C118" s="3">
+        <v>172.56</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="2">
+        <v>31</v>
+      </c>
+      <c r="B119" s="1">
+        <v>86.65</v>
+      </c>
+      <c r="C119" s="1">
+        <v>175.69</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="2">
+        <v>32</v>
+      </c>
+      <c r="B120" s="3">
+        <v>86.6</v>
+      </c>
+      <c r="C120" s="3">
+        <v>179.58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="2">
+        <v>33</v>
+      </c>
+      <c r="B121" s="1">
+        <v>86.55</v>
+      </c>
+      <c r="C121" s="1">
+        <v>179.03</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="2">
+        <v>34</v>
+      </c>
+      <c r="B122" s="3">
+        <v>86.3</v>
+      </c>
+      <c r="C122" s="3">
+        <v>179.15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="2">
+        <v>35</v>
+      </c>
+      <c r="B123" s="1">
+        <v>86.35</v>
+      </c>
+      <c r="C123" s="1">
+        <v>183.74</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="2">
+        <v>36</v>
+      </c>
+      <c r="B124" s="3">
+        <v>86.4</v>
+      </c>
+      <c r="C124" s="3">
+        <v>180.14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="2">
+        <v>37</v>
+      </c>
+      <c r="B125" s="1">
+        <v>86</v>
+      </c>
+      <c r="C125" s="1">
+        <v>159.03</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="2">
+        <v>38</v>
+      </c>
+      <c r="B126" s="3">
+        <v>85.8</v>
+      </c>
+      <c r="C126" s="3">
+        <v>166.45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="2">
+        <v>39</v>
+      </c>
+      <c r="B127" s="1">
+        <v>85.7</v>
+      </c>
+      <c r="C127" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="2">
+        <v>40</v>
+      </c>
+      <c r="B128" s="3">
+        <v>85.6</v>
+      </c>
+      <c r="C128" s="3">
+        <v>160.99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="2">
+        <v>41</v>
+      </c>
+      <c r="B129" s="1">
+        <v>85.2</v>
+      </c>
+      <c r="C129" s="1">
+        <v>159.93</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="2">
+        <v>42</v>
+      </c>
+      <c r="B130" s="3">
+        <v>85.15</v>
+      </c>
+      <c r="C130" s="3">
+        <v>161.71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="2">
+        <v>43</v>
+      </c>
+      <c r="B131" s="1">
+        <v>85.05</v>
+      </c>
+      <c r="C131" s="1">
+        <v>159.47999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="2">
+        <v>44</v>
+      </c>
+      <c r="B132" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="C132" s="3">
+        <v>159.77000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="2">
+        <v>45</v>
+      </c>
+      <c r="B133" s="1">
+        <v>85.05</v>
+      </c>
+      <c r="C133" s="1">
+        <v>163.83000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="2">
+        <v>46</v>
+      </c>
+      <c r="B134" s="3">
+        <v>84.7</v>
+      </c>
+      <c r="C134" s="3">
+        <v>167.35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="2">
+        <v>47</v>
+      </c>
+      <c r="B135" s="1">
+        <v>84.9</v>
+      </c>
+      <c r="C135" s="1">
+        <v>162.52000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="2">
+        <v>48</v>
+      </c>
+      <c r="B136" s="3">
+        <v>84.75</v>
+      </c>
+      <c r="C136" s="3">
+        <v>163.28</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="2">
+        <v>49</v>
+      </c>
+      <c r="B137" s="1">
+        <v>84.75</v>
+      </c>
+      <c r="C137" s="1">
+        <v>166.52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="2">
+        <v>50</v>
+      </c>
+      <c r="B138" s="3">
+        <v>84.75</v>
+      </c>
+      <c r="C138" s="3">
+        <v>163.22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="2">
+        <v>51</v>
+      </c>
+      <c r="B139" s="1">
+        <v>84.65</v>
+      </c>
+      <c r="C139" s="1">
+        <v>160.03</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="2">
+        <v>52</v>
+      </c>
+      <c r="B140" s="3">
+        <v>84.5</v>
+      </c>
+      <c r="C140" s="3">
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="2">
+        <v>53</v>
+      </c>
+      <c r="B141" s="1">
+        <v>84.55</v>
+      </c>
+      <c r="C141" s="1">
+        <v>159.44999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="2">
+        <v>54</v>
+      </c>
+      <c r="B142" s="3">
+        <v>84.55</v>
+      </c>
+      <c r="C142" s="3">
+        <v>159.81</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="2">
+        <v>55</v>
+      </c>
+      <c r="B143" s="1">
+        <v>84.25</v>
+      </c>
+      <c r="C143" s="1">
+        <v>161.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="2">
+        <v>56</v>
+      </c>
+      <c r="B144" s="3">
+        <v>84.25</v>
+      </c>
+      <c r="C144" s="3">
+        <v>162.69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="2">
+        <v>57</v>
+      </c>
+      <c r="B145" s="1">
+        <v>84.05</v>
+      </c>
+      <c r="C145" s="1">
+        <v>160.66999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="2">
+        <v>58</v>
+      </c>
+      <c r="B146" s="3">
+        <v>83.75</v>
+      </c>
+      <c r="C146" s="3">
+        <v>163.24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="2">
+        <v>59</v>
+      </c>
+      <c r="B147" s="1">
+        <v>83.55</v>
+      </c>
+      <c r="C147" s="1">
+        <v>160.25</v>
+      </c>
+      <c r="D147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="2">
+        <v>60</v>
+      </c>
+      <c r="B148" s="3">
+        <v>83.65</v>
+      </c>
+      <c r="C148" s="3">
+        <v>160.01</v>
+      </c>
+      <c r="D148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149">
+        <f>AVERAGE(B90:B148)</f>
+        <v>87.358474576271206</v>
+      </c>
+      <c r="C149">
+        <f>AVERAGE(C89:C148)</f>
+        <v>170.7596666666667</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150">
+        <f>STDEV(B89:B148)</f>
+        <v>2.6920015184136221</v>
+      </c>
+      <c r="C150">
+        <f>STDEV(C89:C148)</f>
+        <v>7.8785120695077024</v>
       </c>
     </row>
   </sheetData>
@@ -1904,7 +2634,7 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>accuracy(%)</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>k=68</t>
+  </si>
+  <si>
+    <t>setup 1</t>
+  </si>
+  <si>
+    <t>setup 2</t>
   </si>
 </sst>
 </file>
@@ -494,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,11 +587,8 @@
       <c r="Q2" s="1">
         <v>96</v>
       </c>
-      <c r="T2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" t="s">
-        <v>6</v>
+      <c r="S2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -625,14 +628,11 @@
       <c r="Q3" s="3">
         <v>96</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="1">
-        <v>93.15</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0.72140000000000004</v>
+      <c r="T3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -673,13 +673,13 @@
         <v>96</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="3">
-        <v>8563.25</v>
-      </c>
-      <c r="U4" s="5">
-        <v>42.113</v>
+        <v>3</v>
+      </c>
+      <c r="T4" s="1">
+        <v>93.15</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0.72140000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -719,6 +719,15 @@
       <c r="Q5" s="3">
         <v>94.75</v>
       </c>
+      <c r="S5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="3">
+        <v>8563.25</v>
+      </c>
+      <c r="U5" s="5">
+        <v>42.113</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
@@ -795,6 +804,9 @@
       <c r="Q7" s="3">
         <v>97</v>
       </c>
+      <c r="S7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
@@ -833,6 +845,12 @@
       <c r="Q8" s="1">
         <v>96.5</v>
       </c>
+      <c r="T8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
@@ -871,6 +889,15 @@
       <c r="Q9" s="3">
         <v>96.25</v>
       </c>
+      <c r="S9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1">
+        <v>85.375</v>
+      </c>
+      <c r="U9">
+        <v>0.91220000000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -908,6 +935,15 @@
       </c>
       <c r="Q10" s="1">
         <v>96</v>
+      </c>
+      <c r="S10" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="1">
+        <v>9736.0499999999993</v>
+      </c>
+      <c r="U10" s="4">
+        <v>53.585999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
